--- a/Google Calendar Notes v04.xlsb.xlsx
+++ b/Google Calendar Notes v04.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\My Documents\code\python\Pycharm Projects\Self Study\GoogleCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1121221F-D7A3-411C-B9D4-E85000E052B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A733F8C-B208-4E0D-8F41-CE5CE12FA3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3017" yWindow="514" windowWidth="16594" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3017" yWindow="514" windowWidth="16594" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="419">
   <si>
     <t>Notes on learning how the google calendar api works</t>
   </si>
@@ -1166,9 +1166,6 @@
     <t>https://www.youtube.com/watch?v=Qd64idiKZWw&amp;feature=youtu.be</t>
   </si>
   <si>
-    <t>Updating calendar event</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CPbvxxslDTU</t>
   </si>
   <si>
@@ -1179,6 +1176,127 @@
   </si>
   <si>
     <t>Includes good information on how tokens work - resume here</t>
+  </si>
+  <si>
+    <t>Updating calendar event (patch vs update)</t>
+  </si>
+  <si>
+    <t>Calendar API conditional modification:</t>
+  </si>
+  <si>
+    <t>https://goo.gl/Bwu7bH</t>
+  </si>
+  <si>
+    <t>http://wescpy.blogspot.com/2015/09/creating-events-in-google-calendar.html</t>
+  </si>
+  <si>
+    <t>Creating events in Google Calendar from Python</t>
+  </si>
+  <si>
+    <t>Modifying events with the Google Calendar API - deep dive</t>
+  </si>
+  <si>
+    <t>http://wescpy.blogspot.com/2014/09/simple-google-api-access-from-python.html</t>
+  </si>
+  <si>
+    <t>Simple Google API access from Python (part 1 of 2)</t>
+  </si>
+  <si>
+    <t>Authorized Google API access from Python (part 2 of 2)</t>
+  </si>
+  <si>
+    <t>http://wescpy.blogspot.com/2014/11/authorized-google-api-access-from-python.html</t>
+  </si>
+  <si>
+    <t>Use to search for various versions of APIs</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/gsuite-apis-intro/#0</t>
+  </si>
+  <si>
+    <t>Codelab walkthrough of how to use Google API</t>
+  </si>
+  <si>
+    <t>https://goo.gl/1a5YQF</t>
+  </si>
+  <si>
+    <t>Start Below</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/calendar/auth</t>
+  </si>
+  <si>
+    <t>Google Calendar API scopes of authorization</t>
+  </si>
+  <si>
+    <t>Authentication using a different (modern)
+Flow pattern</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/calendar/quickstart/js</t>
+  </si>
+  <si>
+    <t>Web browser that makes use of the API</t>
+  </si>
+  <si>
+    <t>Look this over as a review</t>
+  </si>
+  <si>
+    <t>https://www.iana.org/time-zones</t>
+  </si>
+  <si>
+    <t>Time Zone Database</t>
+  </si>
+  <si>
+    <t>Integrate goals</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>brief look at web/js approach</t>
+  </si>
+  <si>
+    <t>practice writing scripts to download and modify calendar events</t>
+  </si>
+  <si>
+    <t>review the calendar api</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/python/docs/setup#windows</t>
+  </si>
+  <si>
+    <t>Setting up a Python development environment</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/shell</t>
+  </si>
+  <si>
+    <t>https://shell.cloud.google.com/?walkthrough_tutorial_url=https%3A%2F%2Fwalkthroughs.googleusercontent.com%2Fcontent%2Fgke_cloud_code_create_app%2Fgke_cloud_code_create_app.md&amp;show=ide&amp;environment_deployment=ide</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/shell/docs</t>
+  </si>
+  <si>
+    <t>Google Cloud Shell Documentation</t>
+  </si>
+  <si>
+    <t>Google Cloud Shell Quickstart</t>
+  </si>
+  <si>
+    <t>Google Cloud Shell</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/python</t>
+  </si>
+  <si>
+    <t>Python on Google Cloud</t>
+  </si>
+  <si>
+    <t>check out:</t>
+  </si>
+  <si>
+    <t>https://flask.palletsprojects.com/en/1.1.x/patterns/favicon/</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C27"/>
+  <dimension ref="A3:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1631,12 +1749,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1644,7 +1762,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1652,22 +1770,22 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1675,12 +1793,66 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -1689,18 +1861,22 @@
     <hyperlink ref="B10" r:id="rId1" xr:uid="{B3F982F3-AD2B-4C0A-A3E7-95EFD8450DF3}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{C782845E-882A-48C5-9E3D-CEF18F4FD64E}"/>
     <hyperlink ref="B14" r:id="rId3" xr:uid="{8DB05017-6A98-4950-BB04-C2DC2794D08A}"/>
+    <hyperlink ref="D31" r:id="rId4" location="0" xr:uid="{4601ABE0-A5B3-4757-9E58-BB0BFBA25771}"/>
+    <hyperlink ref="D33" r:id="rId5" xr:uid="{6797BEF1-54DB-43D9-B127-7DE7FC79C166}"/>
+    <hyperlink ref="D32" r:id="rId6" xr:uid="{82856F51-8508-47ED-875D-DCF5CA86E305}"/>
+    <hyperlink ref="C37" r:id="rId7" xr:uid="{FFB45195-25D7-4094-B8D8-244076268BA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9487F4F7-7C80-47D4-A0C8-78A1120B8919}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1949,7 +2125,7 @@
         <v>58</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -1963,18 +2139,21 @@
       <c r="D37" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="J37" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D39" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2025,6 +2204,11 @@
       <c r="D45" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="K45" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
@@ -2114,132 +2298,283 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="5" t="s">
+    <row r="58" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B58" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D63" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
         <v>78</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G68" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F72" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
-        <v>375</v>
-      </c>
-      <c r="G71" s="1" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>379</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="5" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>395</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F79" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>380</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>398</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>391</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>414</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>413</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>408</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>416</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2584,7 @@
     <hyperlink ref="D18" r:id="rId3" xr:uid="{460E78EF-C86C-4D5E-933B-0597B3182AD5}"/>
     <hyperlink ref="D12" r:id="rId4" location="projects" xr:uid="{75205446-2215-44EE-AE1B-4DA927D631BC}"/>
     <hyperlink ref="D43" r:id="rId5" xr:uid="{C55377B6-EDB5-487D-A01B-670B5C4B5E92}"/>
-    <hyperlink ref="D74" r:id="rId6" xr:uid="{03F3724A-285B-45A2-9C94-03257D987DB0}"/>
+    <hyperlink ref="F88" r:id="rId6" xr:uid="{03F3724A-285B-45A2-9C94-03257D987DB0}"/>
     <hyperlink ref="D41" r:id="rId7" xr:uid="{511F701A-E24B-4C92-B74C-81FC1FB3F00C}"/>
     <hyperlink ref="D46" r:id="rId8" xr:uid="{B6169D9A-C536-4D8D-9849-4CC245CFA21B}"/>
     <hyperlink ref="D45" r:id="rId9" xr:uid="{F7248CA3-9FC3-4B69-AC5F-1A552D0944E7}"/>
@@ -2258,23 +2593,23 @@
     <hyperlink ref="D35" r:id="rId12" xr:uid="{6092C642-7FE2-4B13-B12D-5E2B3CA09A90}"/>
     <hyperlink ref="D36" r:id="rId13" xr:uid="{3F3EF9F6-349F-43E6-94B9-B0CAA4BEB38A}"/>
     <hyperlink ref="D37" r:id="rId14" xr:uid="{3B0A7204-5A52-4A9A-9FAC-FB08F7E39ABE}"/>
-    <hyperlink ref="G62" r:id="rId15" xr:uid="{61FE61C3-A232-4AB0-9B6B-C96301C262AA}"/>
-    <hyperlink ref="G63" r:id="rId16" xr:uid="{C6831B87-6C3E-4555-A3E4-E3BF938D485D}"/>
-    <hyperlink ref="G64" r:id="rId17" xr:uid="{5EB43E2C-1EE3-402C-A5F3-903FB727D184}"/>
-    <hyperlink ref="G65" r:id="rId18" xr:uid="{D61D591B-EDC2-4670-BC14-3866EFA989F1}"/>
-    <hyperlink ref="G66" r:id="rId19" xr:uid="{112D3872-6E2F-44B9-9EAA-7E9FA8A67046}"/>
-    <hyperlink ref="G67" r:id="rId20" xr:uid="{FFF3CC53-9D16-4A60-83F1-842871F4A57F}"/>
-    <hyperlink ref="G69" r:id="rId21" xr:uid="{BFF84ABA-2C42-434A-91FB-0DA0CCB078DD}"/>
-    <hyperlink ref="G70" r:id="rId22" xr:uid="{16BB30BB-647A-4A7B-BEAB-781F7C72C926}"/>
+    <hyperlink ref="F66" r:id="rId15" xr:uid="{61FE61C3-A232-4AB0-9B6B-C96301C262AA}"/>
+    <hyperlink ref="F67" r:id="rId16" xr:uid="{C6831B87-6C3E-4555-A3E4-E3BF938D485D}"/>
+    <hyperlink ref="F68" r:id="rId17" xr:uid="{5EB43E2C-1EE3-402C-A5F3-903FB727D184}"/>
+    <hyperlink ref="F69" r:id="rId18" xr:uid="{D61D591B-EDC2-4670-BC14-3866EFA989F1}"/>
+    <hyperlink ref="F70" r:id="rId19" xr:uid="{112D3872-6E2F-44B9-9EAA-7E9FA8A67046}"/>
+    <hyperlink ref="F71" r:id="rId20" xr:uid="{FFF3CC53-9D16-4A60-83F1-842871F4A57F}"/>
+    <hyperlink ref="F73" r:id="rId21" xr:uid="{BFF84ABA-2C42-434A-91FB-0DA0CCB078DD}"/>
+    <hyperlink ref="F74" r:id="rId22" xr:uid="{16BB30BB-647A-4A7B-BEAB-781F7C72C926}"/>
     <hyperlink ref="D48" r:id="rId23" xr:uid="{E32C6B96-067C-4034-811D-8489056DFB4E}"/>
-    <hyperlink ref="D75" r:id="rId24" xr:uid="{F7579AAB-A33D-4E12-8BDD-F1BEF455A012}"/>
+    <hyperlink ref="F89" r:id="rId24" xr:uid="{F7579AAB-A33D-4E12-8BDD-F1BEF455A012}"/>
     <hyperlink ref="D15" r:id="rId25" xr:uid="{4C617653-AFFC-4339-91A4-3236A9E2C26C}"/>
     <hyperlink ref="D22" r:id="rId26" xr:uid="{73B291DC-D479-4E08-80F4-E2122CFAC64A}"/>
     <hyperlink ref="D29" r:id="rId27" xr:uid="{47A7FDAE-8278-48DC-B76D-A5F5ECC09DD0}"/>
     <hyperlink ref="D13" r:id="rId28" xr:uid="{5BF86066-6FEA-4469-8881-79A1880C8585}"/>
     <hyperlink ref="D14" r:id="rId29" xr:uid="{F769F22C-C2FD-4AA9-8CDF-2BAF384237A4}"/>
-    <hyperlink ref="G60" r:id="rId30" xr:uid="{18F94EA3-1C84-4F68-9E04-5B0ACB9AD9C6}"/>
-    <hyperlink ref="G61" r:id="rId31" xr:uid="{5E404D0C-1D63-4264-8E58-391ED0BE7ACC}"/>
+    <hyperlink ref="F64" r:id="rId30" xr:uid="{18F94EA3-1C84-4F68-9E04-5B0ACB9AD9C6}"/>
+    <hyperlink ref="F65" r:id="rId31" xr:uid="{5E404D0C-1D63-4264-8E58-391ED0BE7ACC}"/>
     <hyperlink ref="D51" r:id="rId32" location="request-body" xr:uid="{974D4DF0-2683-4DDE-9716-FFA034474393}"/>
     <hyperlink ref="D52" r:id="rId33" xr:uid="{BF3BDBEA-45C7-4A66-A52C-21464CAA9288}"/>
     <hyperlink ref="D53" r:id="rId34" xr:uid="{F2EEF78A-BAAD-4292-AC41-A36AF9CF3D68}"/>
@@ -2285,9 +2620,24 @@
     <hyperlink ref="D50" r:id="rId39" xr:uid="{6ACA8DDC-263F-408E-B578-99BE3EB0C915}"/>
     <hyperlink ref="D56" r:id="rId40" xr:uid="{5DCEC39B-EBB7-4C0F-AD7B-108C9953AADA}"/>
     <hyperlink ref="D44" r:id="rId41" xr:uid="{D82B5245-3418-4BBF-B14C-7DBF0149CBBD}"/>
-    <hyperlink ref="G71" r:id="rId42" xr:uid="{BCF3BBCD-4D91-4D2B-9FC1-89452C118D9F}"/>
+    <hyperlink ref="F75" r:id="rId42" xr:uid="{BCF3BBCD-4D91-4D2B-9FC1-89452C118D9F}"/>
     <hyperlink ref="D38" r:id="rId43" xr:uid="{4201FB95-F5BB-457C-9D16-16671D9228AD}"/>
     <hyperlink ref="D39" r:id="rId44" xr:uid="{EFC7572F-7520-47FF-B4F7-34B022B74BB2}"/>
+    <hyperlink ref="F81" r:id="rId45" xr:uid="{C8CB5848-9286-4B75-AE50-5B1B01B217BB}"/>
+    <hyperlink ref="F80" r:id="rId46" xr:uid="{091FD73C-1168-4B05-AD29-3B51C918B000}"/>
+    <hyperlink ref="F76" r:id="rId47" xr:uid="{2659D2F6-C9D8-453D-94AF-4766A436C54B}"/>
+    <hyperlink ref="F77" r:id="rId48" xr:uid="{A0AC8260-8E1D-4DC0-8B71-FB19CDB0AB79}"/>
+    <hyperlink ref="F90" r:id="rId49" location="0" xr:uid="{45DFDC8F-A664-4C8B-B3BF-44568D57BB61}"/>
+    <hyperlink ref="F82" r:id="rId50" xr:uid="{CC130FFD-8EC0-4F14-9A80-3E62AD47810A}"/>
+    <hyperlink ref="F78" r:id="rId51" xr:uid="{C1B1B8F5-E52C-4549-AE90-8578B724F039}"/>
+    <hyperlink ref="D58" r:id="rId52" xr:uid="{A00B327D-04A8-4431-B39E-D11D8876B4E4}"/>
+    <hyperlink ref="F83" r:id="rId53" xr:uid="{4447FE3E-BBBE-4733-81C5-9294FC05BA16}"/>
+    <hyperlink ref="D101" r:id="rId54" xr:uid="{FB6CD8A9-FB1E-4169-A338-34AE2F32D521}"/>
+    <hyperlink ref="F94" r:id="rId55" location="windows" xr:uid="{0ACBC6D9-71A5-4860-B6F3-77492CF667B8}"/>
+    <hyperlink ref="F91" r:id="rId56" xr:uid="{DFCB7225-1D19-4804-842F-91BC0E896A2C}"/>
+    <hyperlink ref="F92" r:id="rId57" xr:uid="{4ED842BC-EC94-43BB-A898-390CEAAF4963}"/>
+    <hyperlink ref="F93" r:id="rId58" xr:uid="{2D7A88A8-D18D-4381-872D-8773D7E256B8}"/>
+    <hyperlink ref="F95" r:id="rId59" xr:uid="{8E2B59F2-717C-4141-AAEF-590FABD87E5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
